--- a/data/pca/factorExposure/factorExposure_2017-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01534725806089534</v>
+        <v>0.01078782384878277</v>
       </c>
       <c r="C2">
-        <v>-0.01804143743233427</v>
+        <v>-0.04099249257329355</v>
       </c>
       <c r="D2">
-        <v>-0.02931405123793864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02988214192651503</v>
+      </c>
+      <c r="E2">
+        <v>0.03927019540444324</v>
+      </c>
+      <c r="F2">
+        <v>-0.001085979005988434</v>
+      </c>
+      <c r="G2">
+        <v>0.1036213776164413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01912609683054233</v>
+        <v>0.0400761539187065</v>
       </c>
       <c r="C3">
-        <v>0.001803252791209073</v>
+        <v>-0.1006152731955357</v>
       </c>
       <c r="D3">
-        <v>-0.08933501642858174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01803748740156175</v>
+      </c>
+      <c r="E3">
+        <v>0.1031141815337766</v>
+      </c>
+      <c r="F3">
+        <v>0.002167448478364073</v>
+      </c>
+      <c r="G3">
+        <v>0.1584276352230547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02862169098145067</v>
+        <v>0.05537807779237548</v>
       </c>
       <c r="C4">
-        <v>-0.006800808425683668</v>
+        <v>-0.06869359067281365</v>
       </c>
       <c r="D4">
-        <v>-0.07893251925657115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02489997162831089</v>
+      </c>
+      <c r="E4">
+        <v>0.03629461698268834</v>
+      </c>
+      <c r="F4">
+        <v>-0.009185688574734929</v>
+      </c>
+      <c r="G4">
+        <v>0.1007390990260676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01379646843689836</v>
+        <v>0.03591313427789307</v>
       </c>
       <c r="C6">
-        <v>-0.00836723956262052</v>
+        <v>-0.05070224006620021</v>
       </c>
       <c r="D6">
-        <v>-0.07435977729362675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01740030485487676</v>
+      </c>
+      <c r="E6">
+        <v>0.04076268743416478</v>
+      </c>
+      <c r="F6">
+        <v>-0.003640494477610124</v>
+      </c>
+      <c r="G6">
+        <v>0.08805594053439796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.004533067310773411</v>
+        <v>0.02052210977767332</v>
       </c>
       <c r="C7">
-        <v>-0.01050486397545685</v>
+        <v>-0.0395076898193904</v>
       </c>
       <c r="D7">
-        <v>-0.03669545374714497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01405158854013218</v>
+      </c>
+      <c r="E7">
+        <v>0.008946733257289927</v>
+      </c>
+      <c r="F7">
+        <v>0.004698641888923337</v>
+      </c>
+      <c r="G7">
+        <v>0.1228694566292903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003591032540001526</v>
+        <v>0.002410246961129914</v>
       </c>
       <c r="C8">
-        <v>-0.00332913558564734</v>
+        <v>-0.02366550917159454</v>
       </c>
       <c r="D8">
-        <v>0.005108654051904481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003936830874697845</v>
+      </c>
+      <c r="E8">
+        <v>0.03161516473090084</v>
+      </c>
+      <c r="F8">
+        <v>-0.002999068495669809</v>
+      </c>
+      <c r="G8">
+        <v>0.07051356663012427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01440659279336626</v>
+        <v>0.03379186392295849</v>
       </c>
       <c r="C9">
-        <v>-0.00680244884741361</v>
+        <v>-0.04979687459759607</v>
       </c>
       <c r="D9">
-        <v>-0.05726903559897361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01650477108348665</v>
+      </c>
+      <c r="E9">
+        <v>0.02502524393089963</v>
+      </c>
+      <c r="F9">
+        <v>-0.006724351921350001</v>
+      </c>
+      <c r="G9">
+        <v>0.1003436755271151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1385726007045819</v>
+        <v>0.09849370532258174</v>
       </c>
       <c r="C10">
-        <v>0.1077688242553645</v>
+        <v>0.1846235414841143</v>
       </c>
       <c r="D10">
-        <v>0.1119319303931742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01570224761520443</v>
+      </c>
+      <c r="E10">
+        <v>0.02012787176741064</v>
+      </c>
+      <c r="F10">
+        <v>0.02184198788243312</v>
+      </c>
+      <c r="G10">
+        <v>0.05683220062968034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.002513239508974374</v>
+        <v>0.03430316329246291</v>
       </c>
       <c r="C11">
-        <v>0.0008112437604762275</v>
+        <v>-0.0530297518258143</v>
       </c>
       <c r="D11">
-        <v>-0.05138478180719055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002657872869640748</v>
+      </c>
+      <c r="E11">
+        <v>0.01987908667358779</v>
+      </c>
+      <c r="F11">
+        <v>-0.01792216856251125</v>
+      </c>
+      <c r="G11">
+        <v>0.09043607131348529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004862510585701234</v>
+        <v>0.03583731029212976</v>
       </c>
       <c r="C12">
-        <v>-0.003472772684693619</v>
+        <v>-0.04768619095973566</v>
       </c>
       <c r="D12">
-        <v>-0.0440248300268919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006708961283976714</v>
+      </c>
+      <c r="E12">
+        <v>0.01043126607886045</v>
+      </c>
+      <c r="F12">
+        <v>-0.0007789598154331026</v>
+      </c>
+      <c r="G12">
+        <v>0.08237824334957483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01821866017400076</v>
+        <v>0.01521598167003871</v>
       </c>
       <c r="C13">
-        <v>-0.01281013018132279</v>
+        <v>-0.04207396891869242</v>
       </c>
       <c r="D13">
-        <v>-0.03513354254446748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02679058123843654</v>
+      </c>
+      <c r="E13">
+        <v>0.03998350487659791</v>
+      </c>
+      <c r="F13">
+        <v>0.0006085875389075156</v>
+      </c>
+      <c r="G13">
+        <v>0.1411672215554728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.003879700050849735</v>
+        <v>0.007893301053126332</v>
       </c>
       <c r="C14">
-        <v>-0.005527850804998884</v>
+        <v>-0.02825169175754989</v>
       </c>
       <c r="D14">
-        <v>-0.01884172636805625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0102986961646411</v>
+      </c>
+      <c r="E14">
+        <v>0.009484495273749434</v>
+      </c>
+      <c r="F14">
+        <v>0.007803857025404777</v>
+      </c>
+      <c r="G14">
+        <v>0.1071411849519358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005775965525560888</v>
+        <v>0.03301024253692113</v>
       </c>
       <c r="C16">
-        <v>0.003364068645004831</v>
+        <v>-0.04628321271861373</v>
       </c>
       <c r="D16">
-        <v>-0.04128587688518491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002112284600690144</v>
+      </c>
+      <c r="E16">
+        <v>0.01643740840297894</v>
+      </c>
+      <c r="F16">
+        <v>0.000544910745546698</v>
+      </c>
+      <c r="G16">
+        <v>0.09245216490965318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01116638334265686</v>
+        <v>0.022079150927131</v>
       </c>
       <c r="C19">
-        <v>-0.007696594755770289</v>
+        <v>-0.05091486606276868</v>
       </c>
       <c r="D19">
-        <v>-0.0381445137367336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01960999289291922</v>
+      </c>
+      <c r="E19">
+        <v>0.08390488462047124</v>
+      </c>
+      <c r="F19">
+        <v>-0.01302459777992523</v>
+      </c>
+      <c r="G19">
+        <v>0.1386185316716704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.005226109209171599</v>
+        <v>0.01546190750635919</v>
       </c>
       <c r="C20">
-        <v>-0.009186450075874878</v>
+        <v>-0.04149584624316624</v>
       </c>
       <c r="D20">
-        <v>-0.03255607216915042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01442393296055119</v>
+      </c>
+      <c r="E20">
+        <v>0.03940631926027385</v>
+      </c>
+      <c r="F20">
+        <v>0.01622430805527601</v>
+      </c>
+      <c r="G20">
+        <v>0.1113326994108187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01285513579176869</v>
+        <v>0.01112290465636491</v>
       </c>
       <c r="C21">
-        <v>-0.006389824624050515</v>
+        <v>-0.03877439709784389</v>
       </c>
       <c r="D21">
-        <v>-0.01958904572372593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01956499303924142</v>
+      </c>
+      <c r="E21">
+        <v>0.05336943592081652</v>
+      </c>
+      <c r="F21">
+        <v>0.003776313426918039</v>
+      </c>
+      <c r="G21">
+        <v>0.138851042210502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.00196170223097206</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002146631254725151</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0007931091354718702</v>
+      </c>
+      <c r="E22">
+        <v>0.005888678724151634</v>
+      </c>
+      <c r="F22">
+        <v>-0.002490599789531203</v>
+      </c>
+      <c r="G22">
+        <v>0.007587829881715548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001954210811769004</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002094730435122907</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0007882041792129196</v>
+      </c>
+      <c r="E23">
+        <v>0.005849152785642306</v>
+      </c>
+      <c r="F23">
+        <v>-0.002457319665079451</v>
+      </c>
+      <c r="G23">
+        <v>0.00747039124597868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.000616509721184403</v>
+        <v>0.02812583464850984</v>
       </c>
       <c r="C24">
-        <v>-0.006835562260095767</v>
+        <v>-0.05078041771990917</v>
       </c>
       <c r="D24">
-        <v>-0.04456006304920753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007416220123560762</v>
+      </c>
+      <c r="E24">
+        <v>0.01436783792457635</v>
+      </c>
+      <c r="F24">
+        <v>-0.01026050051600337</v>
+      </c>
+      <c r="G24">
+        <v>0.09125480058815305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01614070599798733</v>
+        <v>0.04215498341208725</v>
       </c>
       <c r="C25">
-        <v>-0.001135805549513688</v>
+        <v>-0.05798847279702787</v>
       </c>
       <c r="D25">
-        <v>-0.05879334021236696</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01141792728932356</v>
+      </c>
+      <c r="E25">
+        <v>0.006034510872421967</v>
+      </c>
+      <c r="F25">
+        <v>-0.004038718398441537</v>
+      </c>
+      <c r="G25">
+        <v>0.09917619802634717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01240463260675508</v>
+        <v>0.01333750040416377</v>
       </c>
       <c r="C26">
-        <v>-0.01775272658352251</v>
+        <v>-0.01266443098058176</v>
       </c>
       <c r="D26">
-        <v>-0.0002384952770720453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02424265503940269</v>
+      </c>
+      <c r="E26">
+        <v>0.01031338500883634</v>
+      </c>
+      <c r="F26">
+        <v>0.007561974289093769</v>
+      </c>
+      <c r="G26">
+        <v>0.08322498720451836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1900792797218003</v>
+        <v>0.1262494781833335</v>
       </c>
       <c r="C28">
-        <v>0.1293169178016368</v>
+        <v>0.2415429160073778</v>
       </c>
       <c r="D28">
-        <v>0.1433787339212669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006743259271807195</v>
+      </c>
+      <c r="E28">
+        <v>0.008847259907670503</v>
+      </c>
+      <c r="F28">
+        <v>0.01685261832535904</v>
+      </c>
+      <c r="G28">
+        <v>0.04823447032548094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009180794821610159</v>
+        <v>0.008605081685437837</v>
       </c>
       <c r="C29">
-        <v>-0.001221551506635349</v>
+        <v>-0.02273285232035536</v>
       </c>
       <c r="D29">
-        <v>-0.01619853980831343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009363149238719217</v>
+      </c>
+      <c r="E29">
+        <v>0.005872472427215785</v>
+      </c>
+      <c r="F29">
+        <v>0.01428405833946458</v>
+      </c>
+      <c r="G29">
+        <v>0.09880487169852387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01250957637228827</v>
+        <v>0.04105752879743403</v>
       </c>
       <c r="C30">
-        <v>-0.0206346060895897</v>
+        <v>-0.06836802907201532</v>
       </c>
       <c r="D30">
-        <v>-0.09977170381198541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02932417664937653</v>
+      </c>
+      <c r="E30">
+        <v>0.06489281057919598</v>
+      </c>
+      <c r="F30">
+        <v>-0.03985305614949401</v>
+      </c>
+      <c r="G30">
+        <v>0.1348536775939575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0254094625123615</v>
+        <v>0.05293178750873938</v>
       </c>
       <c r="C31">
-        <v>0.01252091968173695</v>
+        <v>-0.03845978838967135</v>
       </c>
       <c r="D31">
-        <v>-0.03118345759315417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003824802718462984</v>
+      </c>
+      <c r="E31">
+        <v>-0.0009903737374419444</v>
+      </c>
+      <c r="F31">
+        <v>0.03901618156520011</v>
+      </c>
+      <c r="G31">
+        <v>0.09894834607031838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0007335982834903414</v>
+        <v>0.002253174478347106</v>
       </c>
       <c r="C32">
-        <v>0.009648741188795868</v>
+        <v>-0.02266070012506354</v>
       </c>
       <c r="D32">
-        <v>0.0001710554005848952</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002634829025820717</v>
+      </c>
+      <c r="E32">
+        <v>0.0390514228943355</v>
+      </c>
+      <c r="F32">
+        <v>-0.0378570566069783</v>
+      </c>
+      <c r="G32">
+        <v>0.08676048421152383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.009753039060624387</v>
+        <v>0.02774134656654336</v>
       </c>
       <c r="C33">
-        <v>-0.006472133965464727</v>
+        <v>-0.05034436863959792</v>
       </c>
       <c r="D33">
-        <v>-0.04190884998428785</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01622238570271817</v>
+      </c>
+      <c r="E33">
+        <v>0.04789165239246463</v>
+      </c>
+      <c r="F33">
+        <v>-0.01277477588392965</v>
+      </c>
+      <c r="G33">
+        <v>0.1624231662104047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.009187956193819666</v>
+        <v>0.03958650602559994</v>
       </c>
       <c r="C34">
-        <v>0.01355060745996864</v>
+        <v>-0.05952233947567753</v>
       </c>
       <c r="D34">
-        <v>-0.05598919089212691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004131706901472454</v>
+      </c>
+      <c r="E34">
+        <v>0.01145390316261301</v>
+      </c>
+      <c r="F34">
+        <v>-0.02062918065562725</v>
+      </c>
+      <c r="G34">
+        <v>0.09435443913368669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01468466427257424</v>
+        <v>0.0157557375235748</v>
       </c>
       <c r="C36">
-        <v>-0.002274557403650136</v>
+        <v>-0.009793569564641735</v>
       </c>
       <c r="D36">
-        <v>-0.00415887059709453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01278071606874431</v>
+      </c>
+      <c r="E36">
+        <v>0.01065941681702759</v>
+      </c>
+      <c r="F36">
+        <v>0.007700487752572011</v>
+      </c>
+      <c r="G36">
+        <v>0.09289174889925478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01622388888130163</v>
+        <v>0.03117501260203084</v>
       </c>
       <c r="C38">
-        <v>0.02097424506815379</v>
+        <v>-0.02965796618909329</v>
       </c>
       <c r="D38">
-        <v>-0.03971906144116501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007527654003824553</v>
+      </c>
+      <c r="E38">
+        <v>0.00714284950400846</v>
+      </c>
+      <c r="F38">
+        <v>0.01827663312076794</v>
+      </c>
+      <c r="G38">
+        <v>0.08714256446833225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.009129561536834653</v>
+        <v>0.0364308859507537</v>
       </c>
       <c r="C39">
-        <v>-0.01740642930801952</v>
+        <v>-0.07945928040497842</v>
       </c>
       <c r="D39">
-        <v>-0.09937027452333252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01191393287401577</v>
+      </c>
+      <c r="E39">
+        <v>0.03167839306787308</v>
+      </c>
+      <c r="F39">
+        <v>-0.02036949655751315</v>
+      </c>
+      <c r="G39">
+        <v>0.0896104287506658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01465972506729245</v>
+        <v>0.01330638737397313</v>
       </c>
       <c r="C40">
-        <v>-0.002353003816432792</v>
+        <v>-0.04011085931468994</v>
       </c>
       <c r="D40">
-        <v>-0.03138946250398886</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01501444759188916</v>
+      </c>
+      <c r="E40">
+        <v>0.03280798503862555</v>
+      </c>
+      <c r="F40">
+        <v>0.01113896108310993</v>
+      </c>
+      <c r="G40">
+        <v>0.1245384020440792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01470178524755987</v>
+        <v>0.0207111086963351</v>
       </c>
       <c r="C41">
-        <v>0.006852153086646802</v>
+        <v>-0.002670520478372086</v>
       </c>
       <c r="D41">
-        <v>0.01008880399350186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004534970328320567</v>
+      </c>
+      <c r="E41">
+        <v>0.007654024236583817</v>
+      </c>
+      <c r="F41">
+        <v>0.01565741856705069</v>
+      </c>
+      <c r="G41">
+        <v>0.08544917057646728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0401448334630429</v>
+        <v>0.008190364389985209</v>
       </c>
       <c r="C42">
-        <v>-0.08447270659463545</v>
+        <v>-0.03229703912221495</v>
       </c>
       <c r="D42">
-        <v>-0.1242918046548361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0879198845990156</v>
+      </c>
+      <c r="E42">
+        <v>0.01165532603947968</v>
+      </c>
+      <c r="F42">
+        <v>0.03944572096439194</v>
+      </c>
+      <c r="G42">
+        <v>-0.02634964025519104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01521860055124862</v>
+        <v>0.03479623247314571</v>
       </c>
       <c r="C43">
-        <v>0.006261563134254655</v>
+        <v>-0.01858063301227347</v>
       </c>
       <c r="D43">
-        <v>0.01040343936996683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006110341705415018</v>
+      </c>
+      <c r="E43">
+        <v>0.02194061459282647</v>
+      </c>
+      <c r="F43">
+        <v>0.007752218632725985</v>
+      </c>
+      <c r="G43">
+        <v>0.1196939682301705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0002446396800858569</v>
+        <v>0.0135740015601449</v>
       </c>
       <c r="C44">
-        <v>-0.002942919169084782</v>
+        <v>-0.05924790302998317</v>
       </c>
       <c r="D44">
-        <v>-0.04852466921310045</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007016683465188473</v>
+      </c>
+      <c r="E44">
+        <v>0.02587772537197515</v>
+      </c>
+      <c r="F44">
+        <v>0.006611830758964635</v>
+      </c>
+      <c r="G44">
+        <v>0.1099518872471803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.007297212617734635</v>
+        <v>0.008702049407260163</v>
       </c>
       <c r="C46">
-        <v>-0.006530104760486056</v>
+        <v>-0.01468715302247618</v>
       </c>
       <c r="D46">
-        <v>0.003939985825974492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01261047685071354</v>
+      </c>
+      <c r="E46">
+        <v>0.001428020424170832</v>
+      </c>
+      <c r="F46">
+        <v>0.01749056674376821</v>
+      </c>
+      <c r="G46">
+        <v>0.1068714986267007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02307275374812576</v>
+        <v>0.07775458350100453</v>
       </c>
       <c r="C47">
-        <v>0.01881957317075254</v>
+        <v>-0.06937533462581381</v>
       </c>
       <c r="D47">
-        <v>-0.07505031442186481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004955484159867912</v>
+      </c>
+      <c r="E47">
+        <v>-0.007878129679440125</v>
+      </c>
+      <c r="F47">
+        <v>0.05286091312447382</v>
+      </c>
+      <c r="G47">
+        <v>0.08411282265795193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008680849266363243</v>
+        <v>0.01839997248730334</v>
       </c>
       <c r="C48">
-        <v>0.00514411977668457</v>
+        <v>-0.01316852379160248</v>
       </c>
       <c r="D48">
-        <v>-0.01573275896177507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00246136138487007</v>
+      </c>
+      <c r="E48">
+        <v>0.006776133713575979</v>
+      </c>
+      <c r="F48">
+        <v>0.01891822556862264</v>
+      </c>
+      <c r="G48">
+        <v>0.09891995717425479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03262363251704924</v>
+        <v>0.07534826718529591</v>
       </c>
       <c r="C50">
-        <v>0.02370727745044575</v>
+        <v>-0.07203599741126883</v>
       </c>
       <c r="D50">
-        <v>-0.06894142937349539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002115262967682245</v>
+      </c>
+      <c r="E50">
+        <v>-0.004407181441881161</v>
+      </c>
+      <c r="F50">
+        <v>0.05387106009035009</v>
+      </c>
+      <c r="G50">
+        <v>0.09427306829599519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007525364177693878</v>
+        <v>0.01436087259934771</v>
       </c>
       <c r="C51">
-        <v>-0.001358215425452989</v>
+        <v>-0.03717402576507461</v>
       </c>
       <c r="D51">
-        <v>-0.02840793895485276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01065059806133848</v>
+      </c>
+      <c r="E51">
+        <v>0.03090106704548811</v>
+      </c>
+      <c r="F51">
+        <v>-0.01848933390331078</v>
+      </c>
+      <c r="G51">
+        <v>0.1249735443799343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03883972862725972</v>
+        <v>0.08175628841178807</v>
       </c>
       <c r="C53">
-        <v>0.02785942251089068</v>
+        <v>-0.08448374396447741</v>
       </c>
       <c r="D53">
-        <v>-0.1245323590223528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003422410903459684</v>
+      </c>
+      <c r="E53">
+        <v>-0.02669786779071873</v>
+      </c>
+      <c r="F53">
+        <v>0.06019030012558137</v>
+      </c>
+      <c r="G53">
+        <v>0.09382596601430371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01670412626371525</v>
+        <v>0.03105848433929903</v>
       </c>
       <c r="C54">
-        <v>0.01603061844743486</v>
+        <v>-0.01848963544359161</v>
       </c>
       <c r="D54">
-        <v>0.001794388316823961</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001074894147709914</v>
+      </c>
+      <c r="E54">
+        <v>0.0205476527762774</v>
+      </c>
+      <c r="F54">
+        <v>0.006191016839190494</v>
+      </c>
+      <c r="G54">
+        <v>0.1074424989516384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0216663495154591</v>
+        <v>0.0719018488557534</v>
       </c>
       <c r="C55">
-        <v>0.01674555605752269</v>
+        <v>-0.06775349948735218</v>
       </c>
       <c r="D55">
-        <v>-0.1000965591204483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004962216508112917</v>
+      </c>
+      <c r="E55">
+        <v>-0.02469155526378348</v>
+      </c>
+      <c r="F55">
+        <v>0.06130424949098545</v>
+      </c>
+      <c r="G55">
+        <v>0.07041551777468268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.04436122342801514</v>
+        <v>0.136514883702332</v>
       </c>
       <c r="C56">
-        <v>0.03645931295536482</v>
+        <v>-0.1079380921258651</v>
       </c>
       <c r="D56">
-        <v>-0.1588774009358072</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01251798562254425</v>
+      </c>
+      <c r="E56">
+        <v>-0.03705707654471674</v>
+      </c>
+      <c r="F56">
+        <v>0.07829129761708879</v>
+      </c>
+      <c r="G56">
+        <v>0.0451302348953322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02045132884706552</v>
+        <v>0.006002478431576187</v>
       </c>
       <c r="C57">
-        <v>-0.01261356217880004</v>
+        <v>-0.006412045856816367</v>
       </c>
       <c r="D57">
-        <v>-0.0306707609144375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02273415449840825</v>
+      </c>
+      <c r="E57">
+        <v>0.02502832003911238</v>
+      </c>
+      <c r="F57">
+        <v>-0.005245276796207627</v>
+      </c>
+      <c r="G57">
+        <v>0.02267838137388483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02300771398929125</v>
+        <v>0.05059373368210653</v>
       </c>
       <c r="C58">
-        <v>0.01462916211727108</v>
+        <v>-0.0425870518949579</v>
       </c>
       <c r="D58">
-        <v>-0.1060177256201303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02231153696018674</v>
+      </c>
+      <c r="E58">
+        <v>0.8886421347126454</v>
+      </c>
+      <c r="F58">
+        <v>0.3341434119754919</v>
+      </c>
+      <c r="G58">
+        <v>-0.2390889114069433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2137303363344747</v>
+        <v>0.1599893159635004</v>
       </c>
       <c r="C59">
-        <v>0.1518866525002756</v>
+        <v>0.2053684786821672</v>
       </c>
       <c r="D59">
-        <v>0.1143851364173865</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01137801928178569</v>
+      </c>
+      <c r="E59">
+        <v>0.02166181028837035</v>
+      </c>
+      <c r="F59">
+        <v>0.001943144209860131</v>
+      </c>
+      <c r="G59">
+        <v>0.04331184739347176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.187780670820264</v>
+        <v>0.2869749071738291</v>
       </c>
       <c r="C60">
-        <v>0.1104399444401504</v>
+        <v>-0.110802912434372</v>
       </c>
       <c r="D60">
-        <v>-0.1607649493282855</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01277316370657302</v>
+      </c>
+      <c r="E60">
+        <v>0.02486300015065116</v>
+      </c>
+      <c r="F60">
+        <v>-0.3386833590731469</v>
+      </c>
+      <c r="G60">
+        <v>-0.1608505484215879</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003277982816085107</v>
+        <v>0.03845296376057477</v>
       </c>
       <c r="C61">
-        <v>-0.001681009361446903</v>
+        <v>-0.06557744466512828</v>
       </c>
       <c r="D61">
-        <v>-0.07514999506342716</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005901689483424307</v>
+      </c>
+      <c r="E61">
+        <v>0.02661218949395098</v>
+      </c>
+      <c r="F61">
+        <v>-0.01257201611323792</v>
+      </c>
+      <c r="G61">
+        <v>0.09812545197367245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006053450892078405</v>
+        <v>0.01485238390368279</v>
       </c>
       <c r="C63">
-        <v>-0.004461702331145013</v>
+        <v>-0.02998034506852954</v>
       </c>
       <c r="D63">
-        <v>-0.02510229222181912</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008719225921180655</v>
+      </c>
+      <c r="E63">
+        <v>0.006672761734339089</v>
+      </c>
+      <c r="F63">
+        <v>0.01420855862693401</v>
+      </c>
+      <c r="G63">
+        <v>0.09484978765211879</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02626472160884667</v>
+        <v>0.04951657058346389</v>
       </c>
       <c r="C64">
-        <v>0.01234579488650602</v>
+        <v>-0.04838931221987051</v>
       </c>
       <c r="D64">
-        <v>-0.058639447310189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006533253528998426</v>
+      </c>
+      <c r="E64">
+        <v>0.008768346723062375</v>
+      </c>
+      <c r="F64">
+        <v>-0.005129951136363629</v>
+      </c>
+      <c r="G64">
+        <v>0.0999147305933648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03084982768564135</v>
+        <v>0.07453222772745739</v>
       </c>
       <c r="C65">
-        <v>0.001052566338886648</v>
+        <v>-0.05781091730522975</v>
       </c>
       <c r="D65">
-        <v>-0.1131032847488625</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01707678203163717</v>
+      </c>
+      <c r="E65">
+        <v>0.04453522856811083</v>
+      </c>
+      <c r="F65">
+        <v>-0.02601369355030952</v>
+      </c>
+      <c r="G65">
+        <v>0.04499770420349276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005729291619937548</v>
+        <v>0.05044622405057574</v>
       </c>
       <c r="C66">
-        <v>-0.01450537966627237</v>
+        <v>-0.1063337626608558</v>
       </c>
       <c r="D66">
-        <v>-0.141066240143389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01208573494403756</v>
+      </c>
+      <c r="E66">
+        <v>0.04536239983148717</v>
+      </c>
+      <c r="F66">
+        <v>-0.031851481796964</v>
+      </c>
+      <c r="G66">
+        <v>0.1049540767924493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.03673387613602756</v>
+        <v>0.0542236543670699</v>
       </c>
       <c r="C67">
-        <v>0.03145719624088533</v>
+        <v>-0.03319330957010751</v>
       </c>
       <c r="D67">
-        <v>-0.05997810309551016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006116545825397006</v>
+      </c>
+      <c r="E67">
+        <v>-0.002893168760692658</v>
+      </c>
+      <c r="F67">
+        <v>0.01717957886375876</v>
+      </c>
+      <c r="G67">
+        <v>0.07452180209746961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2180998301861413</v>
+        <v>0.1561549051985135</v>
       </c>
       <c r="C68">
-        <v>0.1314751529219859</v>
+        <v>0.2699778727643709</v>
       </c>
       <c r="D68">
-        <v>0.1781366925771891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005524951183230309</v>
+      </c>
+      <c r="E68">
+        <v>0.01025058877446098</v>
+      </c>
+      <c r="F68">
+        <v>0.0382192492580396</v>
+      </c>
+      <c r="G68">
+        <v>0.03056731606097949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03002968680056474</v>
+        <v>0.08223507835853124</v>
       </c>
       <c r="C69">
-        <v>0.0285597476086144</v>
+        <v>-0.07000774463092463</v>
       </c>
       <c r="D69">
-        <v>-0.07753300393767827</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00903698568603434</v>
+      </c>
+      <c r="E69">
+        <v>-0.02131921228506035</v>
+      </c>
+      <c r="F69">
+        <v>0.03498050221695863</v>
+      </c>
+      <c r="G69">
+        <v>0.1019194465571338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1765644029621401</v>
+        <v>0.1413555919120424</v>
       </c>
       <c r="C71">
-        <v>0.1141100528070906</v>
+        <v>0.2290031980790455</v>
       </c>
       <c r="D71">
-        <v>0.1217754313245677</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002876956453813177</v>
+      </c>
+      <c r="E71">
+        <v>0.03109001832901402</v>
+      </c>
+      <c r="F71">
+        <v>0.02769350151286531</v>
+      </c>
+      <c r="G71">
+        <v>0.07156467123856428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.01448748547089589</v>
+        <v>0.08475135617146691</v>
       </c>
       <c r="C72">
-        <v>0.0177960217160478</v>
+        <v>-0.06868498922033942</v>
       </c>
       <c r="D72">
-        <v>-0.1079506485518331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008249875908515404</v>
+      </c>
+      <c r="E72">
+        <v>-0.007050387851133372</v>
+      </c>
+      <c r="F72">
+        <v>-0.03438251639740793</v>
+      </c>
+      <c r="G72">
+        <v>0.08839587589862202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2320312732254158</v>
+        <v>0.3752917386634567</v>
       </c>
       <c r="C73">
-        <v>0.1307352878706524</v>
+        <v>-0.1181389473953737</v>
       </c>
       <c r="D73">
-        <v>-0.2891872478653079</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02269473867741</v>
+      </c>
+      <c r="E73">
+        <v>0.1176389122722845</v>
+      </c>
+      <c r="F73">
+        <v>-0.5767375124336352</v>
+      </c>
+      <c r="G73">
+        <v>-0.2925024505324456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.04609622417623689</v>
+        <v>0.1047025111928153</v>
       </c>
       <c r="C74">
-        <v>0.03963768954757889</v>
+        <v>-0.1089557500169621</v>
       </c>
       <c r="D74">
-        <v>-0.1703615428557683</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009442056975508513</v>
+      </c>
+      <c r="E74">
+        <v>-0.01063167729980651</v>
+      </c>
+      <c r="F74">
+        <v>0.0673648847490418</v>
+      </c>
+      <c r="G74">
+        <v>0.08326906246823437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1129661449322345</v>
+        <v>0.2480642503414541</v>
       </c>
       <c r="C75">
-        <v>0.09228964388756759</v>
+        <v>-0.1525891644579485</v>
       </c>
       <c r="D75">
-        <v>-0.3008841556844269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03133132400447447</v>
+      </c>
+      <c r="E75">
+        <v>-0.0784138330809455</v>
+      </c>
+      <c r="F75">
+        <v>0.1592230313296264</v>
+      </c>
+      <c r="G75">
+        <v>-0.0176725690401978</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.05286743980364137</v>
+        <v>0.1176691007766732</v>
       </c>
       <c r="C76">
-        <v>0.05050502008433155</v>
+        <v>-0.1090276983908121</v>
       </c>
       <c r="D76">
-        <v>-0.1979364177177435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01758011413274508</v>
+      </c>
+      <c r="E76">
+        <v>-0.03011748279653782</v>
+      </c>
+      <c r="F76">
+        <v>0.09557666974357748</v>
+      </c>
+      <c r="G76">
+        <v>0.0590985164628026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01655870917318909</v>
+        <v>0.07126171623036223</v>
       </c>
       <c r="C77">
-        <v>0.0002619461481029543</v>
+        <v>-0.06170631226986259</v>
       </c>
       <c r="D77">
-        <v>-0.08417184137440116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01045955224072515</v>
+      </c>
+      <c r="E77">
+        <v>0.05156276175565631</v>
+      </c>
+      <c r="F77">
+        <v>-0.00930418053662725</v>
+      </c>
+      <c r="G77">
+        <v>0.06429103356241808</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.008358789781705326</v>
+        <v>0.04253578420163732</v>
       </c>
       <c r="C78">
-        <v>0.001115011728351452</v>
+        <v>-0.04823594663077582</v>
       </c>
       <c r="D78">
-        <v>-0.06513734047926094</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006084657158677987</v>
+      </c>
+      <c r="E78">
+        <v>0.03375624918479889</v>
+      </c>
+      <c r="F78">
+        <v>-0.03363362231058399</v>
+      </c>
+      <c r="G78">
+        <v>0.104226343281021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0003157661711121613</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005360867240427967</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.00020526583974486</v>
+      </c>
+      <c r="E79">
+        <v>0.002408323395521014</v>
+      </c>
+      <c r="F79">
+        <v>-0.001381413413855353</v>
+      </c>
+      <c r="G79">
+        <v>0.0007880904661857355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03369323738375273</v>
+        <v>0.04301108898464372</v>
       </c>
       <c r="C80">
-        <v>0.01001080900045802</v>
+        <v>-0.05129874304028337</v>
       </c>
       <c r="D80">
-        <v>-0.07450038247268166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01323221146509818</v>
+      </c>
+      <c r="E80">
+        <v>0.02705249371686967</v>
+      </c>
+      <c r="F80">
+        <v>-0.008086445949903339</v>
+      </c>
+      <c r="G80">
+        <v>0.05087066299051862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06331044350879086</v>
+        <v>0.1370601012266551</v>
       </c>
       <c r="C81">
-        <v>0.05100652488633385</v>
+        <v>-0.09713460298771362</v>
       </c>
       <c r="D81">
-        <v>-0.1660307364195368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0150067722689915</v>
+      </c>
+      <c r="E81">
+        <v>-0.04195195607054045</v>
+      </c>
+      <c r="F81">
+        <v>0.123305146504609</v>
+      </c>
+      <c r="G81">
+        <v>0.0208983308880891</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1377821100436075</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08230484083196199</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01064866865200988</v>
+      </c>
+      <c r="E82">
+        <v>-0.1106369162550112</v>
+      </c>
+      <c r="F82">
+        <v>0.05594260651788282</v>
+      </c>
+      <c r="G82">
+        <v>0.05756331303773351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01375381869204604</v>
+        <v>0.03584075903917701</v>
       </c>
       <c r="C83">
-        <v>0.005052258857949498</v>
+        <v>-0.02850387967548801</v>
       </c>
       <c r="D83">
-        <v>-0.02129186453632594</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006036620132649721</v>
+      </c>
+      <c r="E83">
+        <v>0.0328203122207362</v>
+      </c>
+      <c r="F83">
+        <v>-0.02767280339593203</v>
+      </c>
+      <c r="G83">
+        <v>0.06196675086354869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.09614478489029581</v>
+        <v>0.2104773735785324</v>
       </c>
       <c r="C85">
-        <v>0.0656221853677139</v>
+        <v>-0.1473394642967129</v>
       </c>
       <c r="D85">
-        <v>-0.262098232549392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01701960391953225</v>
+      </c>
+      <c r="E85">
+        <v>-0.1085439924538719</v>
+      </c>
+      <c r="F85">
+        <v>0.1037208477010176</v>
+      </c>
+      <c r="G85">
+        <v>-0.05963186706929439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01516788587212938</v>
+        <v>0.01370941454433867</v>
       </c>
       <c r="C86">
-        <v>0.004443795480391208</v>
+        <v>-0.02490752954079483</v>
       </c>
       <c r="D86">
-        <v>-0.03770666128600281</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01159844167307669</v>
+      </c>
+      <c r="E86">
+        <v>0.0537993747423753</v>
+      </c>
+      <c r="F86">
+        <v>-0.01358929535111738</v>
+      </c>
+      <c r="G86">
+        <v>0.1926357136912751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.002936291770754961</v>
+        <v>0.02221148850257643</v>
       </c>
       <c r="C87">
-        <v>-0.01215423165331478</v>
+        <v>-0.01866391495527185</v>
       </c>
       <c r="D87">
-        <v>-0.03002697811125566</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01213811262706852</v>
+      </c>
+      <c r="E87">
+        <v>0.09717763141715956</v>
+      </c>
+      <c r="F87">
+        <v>0.0009231093915392999</v>
+      </c>
+      <c r="G87">
+        <v>0.120282361855653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0486081466483417</v>
+        <v>0.09323133522787265</v>
       </c>
       <c r="C88">
-        <v>0.006373996381168702</v>
+        <v>-0.06875099098798924</v>
       </c>
       <c r="D88">
-        <v>-0.04259425628851638</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02204395049652088</v>
+      </c>
+      <c r="E88">
+        <v>-0.005139367497179001</v>
+      </c>
+      <c r="F88">
+        <v>0.02014531948725762</v>
+      </c>
+      <c r="G88">
+        <v>0.1025737077256538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3310380908604766</v>
+        <v>0.2333571127006663</v>
       </c>
       <c r="C89">
-        <v>0.2110665243209223</v>
+        <v>0.3679412478971402</v>
       </c>
       <c r="D89">
-        <v>0.2113743363261384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0003656807819299776</v>
+      </c>
+      <c r="E89">
+        <v>-0.0190973115961021</v>
+      </c>
+      <c r="F89">
+        <v>0.02412071867197776</v>
+      </c>
+      <c r="G89">
+        <v>0.06833452382417227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2710796926009258</v>
+        <v>0.2082235893415624</v>
       </c>
       <c r="C90">
-        <v>0.1767073205488437</v>
+        <v>0.3172904865599404</v>
       </c>
       <c r="D90">
-        <v>0.1892744748138118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004808810538317132</v>
+      </c>
+      <c r="E90">
+        <v>-0.001258991551303762</v>
+      </c>
+      <c r="F90">
+        <v>0.04529980636928663</v>
+      </c>
+      <c r="G90">
+        <v>0.04301423834582707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0954678270262634</v>
+        <v>0.1851818935078404</v>
       </c>
       <c r="C91">
-        <v>0.08048959522430046</v>
+        <v>-0.1404829783306641</v>
       </c>
       <c r="D91">
-        <v>-0.219351560745815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02216200451762445</v>
+      </c>
+      <c r="E91">
+        <v>-0.0712711111431172</v>
+      </c>
+      <c r="F91">
+        <v>0.1336563064288073</v>
+      </c>
+      <c r="G91">
+        <v>0.03505882426354417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2286770496968192</v>
+        <v>0.1993258810254912</v>
       </c>
       <c r="C92">
-        <v>0.1855165916587314</v>
+        <v>0.2570528436281849</v>
       </c>
       <c r="D92">
-        <v>0.09928081376848696</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03828321873035333</v>
+      </c>
+      <c r="E92">
+        <v>0.03575148165509563</v>
+      </c>
+      <c r="F92">
+        <v>0.0583152156644885</v>
+      </c>
+      <c r="G92">
+        <v>0.1121201457549179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2894257558809418</v>
+        <v>0.2320994145991844</v>
       </c>
       <c r="C93">
-        <v>0.1952108647049981</v>
+        <v>0.3122216854954992</v>
       </c>
       <c r="D93">
-        <v>0.1601326813854124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01145778196872594</v>
+      </c>
+      <c r="E93">
+        <v>0.001647513383795906</v>
+      </c>
+      <c r="F93">
+        <v>0.04277197523246123</v>
+      </c>
+      <c r="G93">
+        <v>0.05892204905521216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1485975230807794</v>
+        <v>0.3228745833109424</v>
       </c>
       <c r="C94">
-        <v>0.09298328572654374</v>
+        <v>-0.1818492360689719</v>
       </c>
       <c r="D94">
-        <v>-0.2826867312254927</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0202881813923545</v>
+      </c>
+      <c r="E94">
+        <v>-0.2496627062102381</v>
+      </c>
+      <c r="F94">
+        <v>0.4692976110565572</v>
+      </c>
+      <c r="G94">
+        <v>-0.4060538747018153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004719083063843188</v>
+        <v>0.1003597647066514</v>
       </c>
       <c r="C95">
-        <v>0.01220826879451093</v>
+        <v>-0.08944358064996925</v>
       </c>
       <c r="D95">
-        <v>-0.1232816630379018</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009697215080059022</v>
+      </c>
+      <c r="E95">
+        <v>0.09182423183788277</v>
+      </c>
+      <c r="F95">
+        <v>-0.1696153711214864</v>
+      </c>
+      <c r="G95">
+        <v>-0.001890646989887524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1348501364496022</v>
+        <v>0.1936703467856257</v>
       </c>
       <c r="C98">
-        <v>0.1075556676267199</v>
+        <v>-0.04541538928666199</v>
       </c>
       <c r="D98">
-        <v>-0.1297622549752329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01232326596683098</v>
+      </c>
+      <c r="E98">
+        <v>0.08879449805953683</v>
+      </c>
+      <c r="F98">
+        <v>-0.2351167708183244</v>
+      </c>
+      <c r="G98">
+        <v>-0.02646551743057246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008914801344119492</v>
+        <v>0.008388087510028565</v>
       </c>
       <c r="C101">
-        <v>-0.001218140835320656</v>
+        <v>-0.02275667856479796</v>
       </c>
       <c r="D101">
-        <v>-0.01614006932663103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009204214752310161</v>
+      </c>
+      <c r="E101">
+        <v>0.00562901674286515</v>
+      </c>
+      <c r="F101">
+        <v>0.01520936064783388</v>
+      </c>
+      <c r="G101">
+        <v>0.09782985685460503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.05724373844177653</v>
+        <v>0.114862346998125</v>
       </c>
       <c r="C102">
-        <v>0.03079714160073451</v>
+        <v>-0.08329896514591158</v>
       </c>
       <c r="D102">
-        <v>-0.1353857353341081</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0009242305354576159</v>
+      </c>
+      <c r="E102">
+        <v>-0.03659998152626322</v>
+      </c>
+      <c r="F102">
+        <v>0.03806742190774045</v>
+      </c>
+      <c r="G102">
+        <v>0.0134018230716775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.5531883198864523</v>
+        <v>0.0211014419655983</v>
       </c>
       <c r="C104">
-        <v>-0.822343119146656</v>
+        <v>0.03042913981879516</v>
       </c>
       <c r="D104">
-        <v>0.02408255609370654</v>
+        <v>-0.9877490383530809</v>
+      </c>
+      <c r="E104">
+        <v>-0.05458866542445567</v>
+      </c>
+      <c r="F104">
+        <v>0.03367935033188946</v>
+      </c>
+      <c r="G104">
+        <v>-0.0395403237271006</v>
       </c>
     </row>
   </sheetData>
